--- a/result/8_pred.xlsx
+++ b/result/8_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,682 +447,394 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>540357.2128408398</v>
+        <v>540357.1951569124</v>
       </c>
       <c r="B2" t="n">
-        <v>2386013.610651755</v>
+        <v>2386019.610625695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>540357.1686310215</v>
+        <v>540357.1244212033</v>
       </c>
       <c r="B3" t="n">
-        <v>2386028.610586605</v>
+        <v>2386043.610521454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>540357.1244212033</v>
+        <v>540357.0536854941</v>
       </c>
       <c r="B4" t="n">
-        <v>2386043.610521454</v>
+        <v>2386067.610417214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>540357.080211385</v>
+        <v>540381.1950526718</v>
       </c>
       <c r="B5" t="n">
-        <v>2386058.610456304</v>
+        <v>2386019.681361404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>540357.0360015668</v>
+        <v>540381.1243169627</v>
       </c>
       <c r="B6" t="n">
-        <v>2386073.610391153</v>
+        <v>2386043.681257164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>540372.2127756893</v>
+        <v>540381.0535812535</v>
       </c>
       <c r="B7" t="n">
-        <v>2386013.654861574</v>
+        <v>2386067.681152923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>540372.1685658711</v>
+        <v>540405.1949484311</v>
       </c>
       <c r="B8" t="n">
-        <v>2386028.654796423</v>
+        <v>2386019.752097114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>540372.1243560528</v>
+        <v>540405.1242127219</v>
       </c>
       <c r="B9" t="n">
-        <v>2386043.654731273</v>
+        <v>2386043.751992873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>540372.0801462346</v>
+        <v>540405.0534770128</v>
       </c>
       <c r="B10" t="n">
-        <v>2386058.654666122</v>
+        <v>2386067.751888632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>540372.0359364164</v>
+        <v>540429.1948441905</v>
       </c>
       <c r="B11" t="n">
-        <v>2386073.654600972</v>
+        <v>2386019.822832823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>540387.2127105389</v>
+        <v>540429.1241084813</v>
       </c>
       <c r="B12" t="n">
-        <v>2386013.699071392</v>
+        <v>2386043.822728582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>540387.1685007206</v>
+        <v>540429.0533727722</v>
       </c>
       <c r="B13" t="n">
-        <v>2386028.699006241</v>
+        <v>2386067.822624341</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>540387.1242909025</v>
+        <v>540453.1947399498</v>
       </c>
       <c r="B14" t="n">
-        <v>2386043.698941091</v>
+        <v>2386019.893568532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>540387.0800810843</v>
+        <v>540453.1240042406</v>
       </c>
       <c r="B15" t="n">
-        <v>2386058.69887594</v>
+        <v>2386043.893464291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>540387.035871266</v>
+        <v>540453.0532685315</v>
       </c>
       <c r="B16" t="n">
-        <v>2386073.69881079</v>
+        <v>2386067.89336005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>540402.2126453886</v>
+        <v>540477.1946357092</v>
       </c>
       <c r="B17" t="n">
-        <v>2386013.74328121</v>
+        <v>2386019.964304241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>540402.1684355703</v>
+        <v>540477.1239</v>
       </c>
       <c r="B18" t="n">
-        <v>2386028.74321606</v>
+        <v>2386043.9642</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>540402.1242257521</v>
+        <v>540477.0531642908</v>
       </c>
       <c r="B19" t="n">
-        <v>2386043.743150909</v>
+        <v>2386067.96409576</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>540402.0800159338</v>
+        <v>540501.1945314686</v>
       </c>
       <c r="B20" t="n">
-        <v>2386058.743085759</v>
+        <v>2386020.03503995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>540402.0358061156</v>
+        <v>540501.1237957594</v>
       </c>
       <c r="B21" t="n">
-        <v>2386073.743020608</v>
+        <v>2386044.03493571</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>540417.2125802381</v>
+        <v>540501.0530600502</v>
       </c>
       <c r="B22" t="n">
-        <v>2386013.787491028</v>
+        <v>2386068.034831469</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>540417.1683704199</v>
+        <v>540525.1944272278</v>
       </c>
       <c r="B23" t="n">
-        <v>2386028.787425878</v>
+        <v>2386020.105775659</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>540417.1241606016</v>
+        <v>540525.1236915187</v>
       </c>
       <c r="B24" t="n">
-        <v>2386043.787360727</v>
+        <v>2386044.105671419</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>540417.0799507834</v>
+        <v>540525.0529558095</v>
       </c>
       <c r="B25" t="n">
-        <v>2386058.787295577</v>
+        <v>2386068.105567178</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>540417.0357409652</v>
+        <v>540549.1943229872</v>
       </c>
       <c r="B26" t="n">
-        <v>2386073.787230426</v>
+        <v>2386020.176511368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>540432.2125150877</v>
+        <v>540549.1235872781</v>
       </c>
       <c r="B27" t="n">
-        <v>2386013.831700847</v>
+        <v>2386044.176407128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>540432.1683052694</v>
+        <v>540549.0528515689</v>
       </c>
       <c r="B28" t="n">
-        <v>2386028.831635696</v>
+        <v>2386068.176302887</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>540432.1240954512</v>
+        <v>540573.1942187465</v>
       </c>
       <c r="B29" t="n">
-        <v>2386043.831570546</v>
+        <v>2386020.247247078</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>540432.079885633</v>
+        <v>540573.1234830373</v>
       </c>
       <c r="B30" t="n">
-        <v>2386058.831505395</v>
+        <v>2386044.247142837</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>540432.0356758147</v>
+        <v>540573.0527473282</v>
       </c>
       <c r="B31" t="n">
-        <v>2386073.831440245</v>
+        <v>2386068.247038596</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>540447.2124499372</v>
+        <v>540597.1941145059</v>
       </c>
       <c r="B32" t="n">
-        <v>2386013.875910664</v>
+        <v>2386020.317982787</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>540447.168240119</v>
+        <v>540597.1233787967</v>
       </c>
       <c r="B33" t="n">
-        <v>2386028.875845514</v>
+        <v>2386044.317878546</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>540447.1240303009</v>
+        <v>540597.0526430876</v>
       </c>
       <c r="B34" t="n">
-        <v>2386043.875780364</v>
+        <v>2386068.317774306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>540447.0798204826</v>
+        <v>540393.1596326969</v>
       </c>
       <c r="B35" t="n">
-        <v>2386058.875715213</v>
+        <v>2386031.716677139</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>540447.0356106644</v>
+        <v>540417.1595284562</v>
       </c>
       <c r="B36" t="n">
-        <v>2386073.875650063</v>
+        <v>2386031.787412847</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>540462.2123847869</v>
+        <v>540441.1594242156</v>
       </c>
       <c r="B37" t="n">
-        <v>2386013.920120483</v>
+        <v>2386031.858148557</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>540462.1681749687</v>
+        <v>540465.1593199749</v>
       </c>
       <c r="B38" t="n">
-        <v>2386028.920055333</v>
+        <v>2386031.928884266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>540462.1239651504</v>
+        <v>540393.0888969877</v>
       </c>
       <c r="B39" t="n">
-        <v>2386043.919990182</v>
+        <v>2386055.716572898</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>540462.0797553322</v>
+        <v>540417.0887927471</v>
       </c>
       <c r="B40" t="n">
-        <v>2386058.919925032</v>
+        <v>2386055.787308607</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>540462.035545514</v>
+        <v>540441.0886885064</v>
       </c>
       <c r="B41" t="n">
-        <v>2386073.919859881</v>
+        <v>2386055.858044316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>540477.2123196365</v>
+        <v>540465.0885842657</v>
       </c>
       <c r="B42" t="n">
-        <v>2386013.964330301</v>
+        <v>2386055.928780025</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>540477.1681098182</v>
+        <v>540489.1592157343</v>
       </c>
       <c r="B43" t="n">
-        <v>2386028.96426515</v>
+        <v>2386031.999619975</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>540477.1239</v>
+        <v>540489.0884800251</v>
       </c>
       <c r="B44" t="n">
-        <v>2386043.9642</v>
+        <v>2386055.999515735</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>540477.0796901818</v>
+        <v>540513.1591114936</v>
       </c>
       <c r="B45" t="n">
-        <v>2386058.96413485</v>
+        <v>2386032.070355684</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>540477.0354803635</v>
+        <v>540513.0883757845</v>
       </c>
       <c r="B46" t="n">
-        <v>2386073.964069699</v>
+        <v>2386056.070251443</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>540492.212254486</v>
+        <v>540537.1590072529</v>
       </c>
       <c r="B47" t="n">
-        <v>2386014.00854012</v>
+        <v>2386032.141091393</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>540492.1680446678</v>
+        <v>540537.0882715438</v>
       </c>
       <c r="B48" t="n">
-        <v>2386029.008474969</v>
+        <v>2386056.140987153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>540492.1238348496</v>
+        <v>540561.1589030123</v>
       </c>
       <c r="B49" t="n">
-        <v>2386044.008409819</v>
+        <v>2386032.211827103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>540492.0796250313</v>
+        <v>540561.0881673031</v>
       </c>
       <c r="B50" t="n">
-        <v>2386059.008344668</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>540492.0354152131</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2386074.008279518</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>540507.2121893356</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2386014.052749937</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>540507.1679795174</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2386029.052684787</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>540507.1237696991</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2386044.052619637</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>540507.079559881</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2386059.052554486</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>540507.0353500628</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2386074.052489336</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>540522.2121241853</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2386014.096959756</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>540522.167914367</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2386029.096894606</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>540522.1237045488</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2386044.096829455</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>540522.0794947306</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2386059.096764305</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>540522.0352849123</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2386074.096699154</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>540537.2120590348</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2386014.141169574</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>540537.1678492166</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2386029.141104423</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>540537.1236393984</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2386044.141039273</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>540537.0794295801</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2386059.140974123</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>540537.0352197619</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2386074.140908972</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>540552.2119938844</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2386014.185379392</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>540552.1677840662</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2386029.185314242</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>540552.1235742479</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2386044.185249092</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>540552.0793644297</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2386059.185183941</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>540552.0351546115</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2386074.185118791</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>540567.211928734</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2386014.22958921</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>540567.1677189157</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2386029.22952406</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>540567.1235090975</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2386044.229458909</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>540567.0792992794</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2386059.229393759</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>540567.0350894611</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2386074.229328609</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>540582.2118635837</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2386014.273799029</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>540582.1676537654</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2386029.273733879</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>540582.1234439472</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2386044.273668728</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>540582.0792341289</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2386059.273603578</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>540582.0350243107</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2386074.273538427</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>540597.2117984332</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2386014.318008847</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>540597.167588615</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2386029.317943696</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>540597.1233787967</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2386044.317878546</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>540597.0791689785</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2386059.317813396</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>540597.0349591603</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2386074.317748245</v>
+        <v>2386056.211722862</v>
       </c>
     </row>
   </sheetData>
